--- a/python_excel/01.엑셀자동화기초/교육이수현황.xlsx
+++ b/python_excel/01.엑셀자동화기초/교육이수현황.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\coding\startcoding\python_basic\-\python_excel\01.엑셀자동화기초\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A645FE76-DBA3-42BA-9BA5-5931A8DA27B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D882F3-D18F-408C-B1C7-A5A49442E72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14445" yWindow="-16200" windowWidth="14610" windowHeight="15585" xr2:uid="{74D20427-2563-4BA4-87D1-9A1B11993F30}"/>
+    <workbookView xWindow="8130" yWindow="-12120" windowWidth="17280" windowHeight="8880" xr2:uid="{74D20427-2563-4BA4-87D1-9A1B11993F30}"/>
   </bookViews>
   <sheets>
     <sheet name="마케팅팀" sheetId="3" r:id="rId1"/>
@@ -39,27 +39,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>야스오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이즈리얼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>1월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>리신</t>
-  </si>
-  <si>
-    <t>야스오</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요네</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이즈리얼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샤코</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -67,7 +89,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,13 +105,28 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFFAFAFA"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7D00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -106,8 +143,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -444,52 +484,127 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2808C7F5-DBA8-40FD-8852-BC706738A777}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D2" sqref="D2:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>1</v>
       </c>
       <c r="B2">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>15.5</v>
+      </c>
+      <c r="C6">
+        <v>15.5</v>
+      </c>
+      <c r="D6">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <f>SUM(B2:B7)</f>
+        <v>40.5</v>
+      </c>
+      <c r="C8">
+        <f>SUM(C2:C7)</f>
+        <v>40.5</v>
+      </c>
+      <c r="D8">
+        <f>SUM(D2:D7)</f>
+        <v>40.5</v>
       </c>
     </row>
   </sheetData>
